--- a/data/evaluation/evaluation_South_Autumn_Zucchini.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Zucchini.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1218.448484848485</v>
+        <v>1027.539393939394</v>
       </c>
       <c r="C3" t="n">
-        <v>8900929.137777777</v>
+        <v>5560020.046868687</v>
       </c>
       <c r="D3" t="n">
-        <v>2983.442497816537</v>
+        <v>2357.969475389511</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1328771710604302</v>
+        <v>0.2923413180538529</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149.615743646243</v>
+        <v>1090.039752790022</v>
       </c>
       <c r="C4" t="n">
-        <v>7755275.515630517</v>
+        <v>6993377.030734063</v>
       </c>
       <c r="D4" t="n">
-        <v>2784.829530802652</v>
+        <v>2644.499391327981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01293736294869641</v>
+        <v>0.1099089697151575</v>
       </c>
     </row>
     <row r="5">
